--- a/list_menu.xlsx
+++ b/list_menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Python_Projects\tgBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF08659-57C1-4043-AF1A-AA374A74B7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694CEF6C-BF96-42C5-8457-F9982322CC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94751A9B-A7ED-4895-BA97-00025B11FEC4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
   <si>
     <t>type_menu</t>
   </si>
@@ -149,6 +149,23 @@
   </si>
   <si>
     <t>C:\Work\Работа\Поиск работы 2023\Project_2311\Fedorov_P_21.jpg</t>
+  </si>
+  <si>
+    <t>otz1.jpg</t>
+  </si>
+  <si>
+    <t>refresher_courses.jpg</t>
+  </si>
+  <si>
+    <t>Обучение, курсы</t>
+  </si>
+  <si>
+    <t>Узнать больше</t>
+  </si>
+  <si>
+    <t>https://hh.ru/resume/b7fbd0c0ff0c90dbf90039ed1f55507269436e
+https://staff.am/en/profile/pavel-fedorov-6074ceb4c328c516
+https://www.linkedin.com/in/paveldmfedorov/</t>
   </si>
 </sst>
 </file>
@@ -558,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B40F60B-5D60-471D-90FF-C2F14B83DF5E}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -639,7 +656,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -692,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -736,8 +753,8 @@
       <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
-        <v>23</v>
+      <c r="D12" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -762,23 +779,9 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -786,6 +789,8 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D11" r:id="rId1" xr:uid="{607DE918-7BB0-44FD-AAFE-E62772660FFC}"/>
+    <hyperlink ref="D12" r:id="rId2" xr:uid="{F61F7162-A4BA-459C-B657-32A5BB84B98B}"/>
+    <hyperlink ref="D9" r:id="rId3" xr:uid="{8BF5EAA3-9C33-40FB-883E-D25401FE108A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/list_menu.xlsx
+++ b/list_menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Python_Projects\tgBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694CEF6C-BF96-42C5-8457-F9982322CC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74559712-317E-4DB5-A303-675AD9D0F47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94751A9B-A7ED-4895-BA97-00025B11FEC4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
   <si>
     <t>type_menu</t>
   </si>
@@ -139,9 +139,6 @@
     <t>Как преодолеваю трудности</t>
   </si>
   <si>
-    <t>Контакты (Павла Федорова)</t>
-  </si>
-  <si>
     <t>Назад</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>C:\Work\Работа\Поиск работы 2023\Project_2311\Fedorov_P_21.jpg</t>
   </si>
   <si>
-    <t>otz1.jpg</t>
-  </si>
-  <si>
     <t>refresher_courses.jpg</t>
   </si>
   <si>
@@ -163,9 +157,27 @@
     <t>Узнать больше</t>
   </si>
   <si>
-    <t>https://hh.ru/resume/b7fbd0c0ff0c90dbf90039ed1f55507269436e
-https://staff.am/en/profile/pavel-fedorov-6074ceb4c328c516
-https://www.linkedin.com/in/paveldmfedorov/</t>
+    <t xml:space="preserve">https://staff.am/en/profile/pavel-fedorov-6074ceb4c328c516
+</t>
+  </si>
+  <si>
+    <t>Ссылка на резюме</t>
+  </si>
+  <si>
+    <t>Файл с резюме</t>
+  </si>
+  <si>
+    <t>https://staff.am/en/profile/pavel-fedorov-6074ceb4c328c516</t>
+  </si>
+  <si>
+    <t>Тексты программ на  github
+https://github.com/FedorovPro65</t>
+  </si>
+  <si>
+    <t>Проекты на github</t>
+  </si>
+  <si>
+    <t>Мои контакты</t>
   </si>
 </sst>
 </file>
@@ -248,7 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -260,6 +272,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -575,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B40F60B-5D60-471D-90FF-C2F14B83DF5E}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,170 +642,157 @@
       <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4">
+    <row r="5" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
       <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" xr:uid="{607DE918-7BB0-44FD-AAFE-E62772660FFC}"/>
-    <hyperlink ref="D12" r:id="rId2" xr:uid="{F61F7162-A4BA-459C-B657-32A5BB84B98B}"/>
-    <hyperlink ref="D9" r:id="rId3" xr:uid="{8BF5EAA3-9C33-40FB-883E-D25401FE108A}"/>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{607DE918-7BB0-44FD-AAFE-E62772660FFC}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{8BF5EAA3-9C33-40FB-883E-D25401FE108A}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{5683F03D-86F5-4E00-A084-BA92AD8E4F7D}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{713F4896-C2BD-4830-88AD-D090B57CF695}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/list_menu.xlsx
+++ b/list_menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Python_Projects\tgBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74559712-317E-4DB5-A303-675AD9D0F47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699AD405-B1F8-4B99-B43A-61D3C7974E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94751A9B-A7ED-4895-BA97-00025B11FEC4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="64">
   <si>
     <t>type_menu</t>
   </si>
@@ -145,9 +145,6 @@
     <t>Level_1</t>
   </si>
   <si>
-    <t>C:\Work\Работа\Поиск работы 2023\Project_2311\Fedorov_P_21.jpg</t>
-  </si>
-  <si>
     <t>refresher_courses.jpg</t>
   </si>
   <si>
@@ -178,6 +175,91 @@
   </si>
   <si>
     <t>Мои контакты</t>
+  </si>
+  <si>
+    <t>Briefly about Pavel</t>
+  </si>
+  <si>
+    <t>Коротко о Павле</t>
+  </si>
+  <si>
+    <t>Link to resume</t>
+  </si>
+  <si>
+    <t>Database developer with many years of experience in developing reporting systems in various sectors of the economy. Experience in large Russian and international companies. I specialize in Microsoft products (MS SQL Server, SSAS, SSRS, SSIS, VS). Experience in team development using the KANBAN system with using JIRA, GIT. I quickly master new software, establish communications, delve into details. I work with great dedication.
+I love my job. I like that the result really makes it easier and faster for other people to complete business functions.
+You can contact via telegram: https://t.me/PavelDmF</t>
+  </si>
+  <si>
+    <t>To learn more</t>
+  </si>
+  <si>
+    <t>Resume file</t>
+  </si>
+  <si>
+    <t>Projects on github</t>
+  </si>
+  <si>
+    <t>Texts of programs on github
+https://github.com/FedorovPro65</t>
+  </si>
+  <si>
+    <t>My contacts</t>
+  </si>
+  <si>
+    <t>Pavel Fedorov
++7 (903) 5756207 (RF)
+p4444@yandex.ru
++ 37455150765 (Armenia)
+fedorov.pd.23@gmail.com
+telegram:
+ https://t.me/PavelDmF
+ https://t.me/Fedorov_P_1965_bot</t>
+  </si>
+  <si>
+    <t>Training, courses</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>Fedorov_P_21.jpg</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Pavel_Fedorov_Staff_eng.pdf</t>
+  </si>
+  <si>
+    <t>btn_name_eng</t>
+  </si>
+  <si>
+    <t>btn_callback_eng</t>
+  </si>
+  <si>
+    <t>type_btn</t>
+  </si>
+  <si>
+    <t>Reply</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>ENG</t>
+  </si>
+  <si>
+    <t>Action doc</t>
+  </si>
+  <si>
+    <t>Action jpg</t>
   </si>
 </sst>
 </file>
@@ -232,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -255,12 +337,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBBCDD6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBBCDD6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -274,6 +367,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -590,21 +686,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B40F60B-5D60-471D-90FF-C2F14B83DF5E}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="103.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="103.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="74" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,13 +713,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="F1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -626,13 +736,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -640,13 +759,22 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -654,147 +782,285 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E15" t="s">
         <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D12" r:id="rId1" xr:uid="{607DE918-7BB0-44FD-AAFE-E62772660FFC}"/>
-    <hyperlink ref="D10" r:id="rId2" xr:uid="{8BF5EAA3-9C33-40FB-883E-D25401FE108A}"/>
-    <hyperlink ref="D6" r:id="rId3" xr:uid="{5683F03D-86F5-4E00-A084-BA92AD8E4F7D}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{713F4896-C2BD-4830-88AD-D090B57CF695}"/>
+    <hyperlink ref="E14" r:id="rId1" display="C:\Work\Работа\Поиск работы 2023\Project_2311\Fedorov_P_21.jpg" xr:uid="{607DE918-7BB0-44FD-AAFE-E62772660FFC}"/>
+    <hyperlink ref="E12" r:id="rId2" xr:uid="{8BF5EAA3-9C33-40FB-883E-D25401FE108A}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{5683F03D-86F5-4E00-A084-BA92AD8E4F7D}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{713F4896-C2BD-4830-88AD-D090B57CF695}"/>
+    <hyperlink ref="G3" r:id="rId5" xr:uid="{E3C50CB7-77F0-4017-B67E-E5988F75872F}"/>
+    <hyperlink ref="G8" r:id="rId6" xr:uid="{E672101E-DDDC-4D09-BF3F-30EF4DCCCF5F}"/>
+    <hyperlink ref="G12" r:id="rId7" xr:uid="{EEF908AC-6827-4E39-8166-BFA69AEF5E94}"/>
+    <hyperlink ref="G14" r:id="rId8" display="C:\Work\Работа\Поиск работы 2023\Project_2311\Fedorov_P_21.jpg" xr:uid="{66B6A48A-0403-4E9C-8D1C-67417E4FF735}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
